--- a/public/seeders/regions.xlsx
+++ b/public/seeders/regions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">soato</t>
   </si>
@@ -143,15 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">Guliston sh.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">город Ташкент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toshkent shahri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NULL</t>
   </si>
   <si>
     <t xml:space="preserve">Ташкентская область</t>
@@ -304,10 +295,10 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.85"/>
@@ -489,7 +480,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>41</v>
@@ -501,77 +492,61 @@
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>1735</v>
-      </c>
-      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
